--- a/Code/Results/Cases/Case_2_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.78341083630077</v>
+        <v>20.46881016851428</v>
       </c>
       <c r="C2">
-        <v>21.96202827771165</v>
+        <v>13.54377188033832</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.1406172656994</v>
+        <v>16.77355237588091</v>
       </c>
       <c r="F2">
-        <v>47.20302623045649</v>
+        <v>47.50616550936569</v>
       </c>
       <c r="G2">
-        <v>2.046010909566877</v>
+        <v>3.669915681311299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.124114793604545</v>
+        <v>9.265219716441752</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.0759594126989</v>
+        <v>18.36849905770418</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.66241438192602</v>
+        <v>19.84711276551646</v>
       </c>
       <c r="C3">
-        <v>20.32850108390219</v>
+        <v>12.94045050999947</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.52061845280627</v>
+        <v>16.72216121709578</v>
       </c>
       <c r="F3">
-        <v>44.60569462353252</v>
+        <v>47.07946520414222</v>
       </c>
       <c r="G3">
-        <v>2.060819324621629</v>
+        <v>3.674744770130402</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.049882896724933</v>
+        <v>9.282410435452039</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.36262992783886</v>
+        <v>18.44049805074787</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.30400054888284</v>
+        <v>19.46258293652042</v>
       </c>
       <c r="C4">
-        <v>19.28227617595051</v>
+        <v>12.56002308884923</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.13021915811333</v>
+        <v>16.69383337306526</v>
       </c>
       <c r="F4">
-        <v>43.00064359467396</v>
+        <v>46.83095792201943</v>
       </c>
       <c r="G4">
-        <v>2.070032270109368</v>
+        <v>3.677857012321019</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.010813177503478</v>
+        <v>9.294835203925411</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.54247292742139</v>
+        <v>18.4867694281206</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.73596329708677</v>
+        <v>19.30545007344866</v>
       </c>
       <c r="C5">
-        <v>18.84472337867131</v>
+        <v>12.40273950786562</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.96884065797945</v>
+        <v>16.68310941685904</v>
       </c>
       <c r="F5">
-        <v>42.34429489768238</v>
+        <v>46.73316768286469</v>
       </c>
       <c r="G5">
-        <v>2.073822866001311</v>
+        <v>3.679162449258026</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.996426611103583</v>
+        <v>9.300366507579843</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.61672272803657</v>
+        <v>18.50614470584586</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.64075759340427</v>
+        <v>19.27934030616031</v>
       </c>
       <c r="C6">
-        <v>18.7713820987814</v>
+        <v>12.37649448727461</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.94191105210841</v>
+        <v>16.68137846409373</v>
       </c>
       <c r="F6">
-        <v>42.23518383789493</v>
+        <v>46.71714215943163</v>
       </c>
       <c r="G6">
-        <v>2.074454642341466</v>
+        <v>3.679381466138781</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.99412753673247</v>
+        <v>9.301313188750406</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.62911011019768</v>
+        <v>18.50939333308645</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.2963988345154</v>
+        <v>19.46046517447551</v>
       </c>
       <c r="C7">
-        <v>19.27642098054275</v>
+        <v>12.55791068306315</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.12805177835596</v>
+        <v>16.69368541570903</v>
       </c>
       <c r="F7">
-        <v>42.991800520878</v>
+        <v>46.82962489553097</v>
       </c>
       <c r="G7">
-        <v>2.070083237263627</v>
+        <v>3.677874467163876</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.010613072504365</v>
+        <v>9.294907908360836</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.54347038437226</v>
+        <v>18.48702862664971</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.063500086626</v>
+        <v>20.25518920513057</v>
       </c>
       <c r="C8">
-        <v>21.40754501741934</v>
+        <v>13.33796217049593</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.92893969696236</v>
+        <v>16.75516838676933</v>
       </c>
       <c r="F8">
-        <v>46.30972212183856</v>
+        <v>47.35629410536921</v>
       </c>
       <c r="G8">
-        <v>2.051095626370798</v>
+        <v>3.671550309023925</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.097105488164073</v>
+        <v>9.270757847378452</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.17400700281014</v>
+        <v>18.392896215464</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.06438515163634</v>
+        <v>21.78027814904159</v>
       </c>
       <c r="C9">
-        <v>25.26131244379686</v>
+        <v>14.77879538740316</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.41761203987044</v>
+        <v>16.90092922054962</v>
       </c>
       <c r="F9">
-        <v>52.73231074539778</v>
+        <v>48.49194504020979</v>
       </c>
       <c r="G9">
-        <v>2.014508770219348</v>
+        <v>3.660308643623182</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.323305179877428</v>
+        <v>9.238322269682117</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.48034631476875</v>
+        <v>18.22465888030183</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.51283588611174</v>
+        <v>22.86681436179169</v>
       </c>
       <c r="C10">
-        <v>27.92351280790563</v>
+        <v>15.77235749047685</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.45801468879739</v>
+        <v>17.02278451348796</v>
       </c>
       <c r="F10">
-        <v>57.41502875675953</v>
+        <v>49.38297609184271</v>
       </c>
       <c r="G10">
-        <v>1.987515597068949</v>
+        <v>3.652745779350755</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.531596128005941</v>
+        <v>9.223706862297465</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.99140672274516</v>
+        <v>18.11099862756352</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.04215039076933</v>
+        <v>23.35123603449664</v>
       </c>
       <c r="C11">
-        <v>29.10601365703873</v>
+        <v>16.20845747469844</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.91986620945141</v>
+        <v>17.08128458731357</v>
       </c>
       <c r="F11">
-        <v>59.54652804987964</v>
+        <v>49.79924099662983</v>
       </c>
       <c r="G11">
-        <v>1.975069549570204</v>
+        <v>3.649454132782236</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.637474708766851</v>
+        <v>9.219082643316943</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.7744109449795</v>
+        <v>18.06144577369372</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.61658822516797</v>
+        <v>23.53307500145706</v>
       </c>
       <c r="C12">
-        <v>29.55053250505593</v>
+        <v>16.37119525448572</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.09318078584224</v>
+        <v>17.10386516807839</v>
       </c>
       <c r="F12">
-        <v>60.37523425715787</v>
+        <v>49.95831885318202</v>
       </c>
       <c r="G12">
-        <v>1.970317844580058</v>
+        <v>3.648228879813738</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.679366211622588</v>
+        <v>9.217624468525996</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.69315673427324</v>
+        <v>18.04299064795187</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.49306304058859</v>
+        <v>23.49398667580306</v>
       </c>
       <c r="C13">
-        <v>29.4549276329634</v>
+        <v>16.33625539450572</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.05592304215918</v>
+        <v>17.09898322319521</v>
       </c>
       <c r="F13">
-        <v>60.19125280224542</v>
+        <v>49.92399622436461</v>
       </c>
       <c r="G13">
-        <v>1.971343194994907</v>
+        <v>3.6484918187504</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.670260640444988</v>
+        <v>9.217925457143481</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.71061264321539</v>
+        <v>18.04695152461337</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.08949717211018</v>
+        <v>23.36622911442163</v>
       </c>
       <c r="C14">
-        <v>29.1426446004155</v>
+        <v>16.22189481021639</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.93415599537934</v>
+        <v>17.08313380796214</v>
       </c>
       <c r="F14">
-        <v>59.61301015654754</v>
+        <v>49.81230014134366</v>
       </c>
       <c r="G14">
-        <v>1.974679493554156</v>
+        <v>3.649352906112687</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.640883860683032</v>
+        <v>9.218956797866193</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.76770672555729</v>
+        <v>18.05992125681693</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.84172457324919</v>
+        <v>23.28776025566287</v>
       </c>
       <c r="C15">
-        <v>28.95096425743054</v>
+        <v>16.15152934300312</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.85936734333558</v>
+        <v>17.07348090233242</v>
       </c>
       <c r="F15">
-        <v>59.2654196849896</v>
+        <v>49.74406782154921</v>
       </c>
       <c r="G15">
-        <v>1.976717551681222</v>
+        <v>3.64988310579815</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.623130308946901</v>
+        <v>9.219626722413963</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.8028030576224</v>
+        <v>18.06790589595394</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.41217855701232</v>
+        <v>22.83494186094521</v>
       </c>
       <c r="C16">
-        <v>27.84572696734011</v>
+        <v>15.74352708631773</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.42760607334783</v>
+        <v>17.01902200477021</v>
       </c>
       <c r="F16">
-        <v>57.27584884625873</v>
+        <v>49.3559815736737</v>
       </c>
       <c r="G16">
-        <v>1.988324431258501</v>
+        <v>3.652963874984171</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.524916715593906</v>
+        <v>9.224049958788635</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.00570751484394</v>
+        <v>18.11428032450707</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.52574834542112</v>
+        <v>22.55449248194995</v>
       </c>
       <c r="C17">
-        <v>27.16093352877885</v>
+        <v>15.48907238681407</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.15983819860001</v>
+        <v>16.98638967408193</v>
       </c>
       <c r="F17">
-        <v>56.05636714475103</v>
+        <v>49.12061511633474</v>
       </c>
       <c r="G17">
-        <v>1.995392611908477</v>
+        <v>3.65489180432322</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.467645695662403</v>
+        <v>9.227283285007507</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.13165274971949</v>
+        <v>18.14328066567955</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.01211910106086</v>
+        <v>22.39226821108092</v>
       </c>
       <c r="C18">
-        <v>26.76431284957771</v>
+        <v>15.34122831241113</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.00474240338757</v>
+        <v>16.96790997896749</v>
       </c>
       <c r="F18">
-        <v>55.35498370466877</v>
+        <v>48.98627502364506</v>
       </c>
       <c r="G18">
-        <v>1.999443380326046</v>
+        <v>3.656014708198061</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.435738572516642</v>
+        <v>9.22933345249761</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.20459271445224</v>
+        <v>18.16016342320556</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.83753723814562</v>
+        <v>22.33719026398576</v>
       </c>
       <c r="C19">
-        <v>26.62952944090481</v>
+        <v>15.29091920590237</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.95204242531268</v>
+        <v>16.96170319678381</v>
       </c>
       <c r="F19">
-        <v>55.11748275641367</v>
+        <v>48.94097153784056</v>
       </c>
       <c r="G19">
-        <v>2.000812784032391</v>
+        <v>3.656397315429645</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.425107421212956</v>
+        <v>9.230060256265149</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.22937145938213</v>
+        <v>18.16591441878451</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.62049484234498</v>
+        <v>22.58444312165787</v>
       </c>
       <c r="C20">
-        <v>27.23410957604552</v>
+        <v>15.51631451046699</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.18845428607895</v>
+        <v>16.98983356711713</v>
       </c>
       <c r="F20">
-        <v>56.18617260562967</v>
+        <v>49.14556390009374</v>
       </c>
       <c r="G20">
-        <v>1.994641806655627</v>
+        <v>3.654685124185644</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.473633991686619</v>
+        <v>9.226919368317946</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.11819314532306</v>
+        <v>18.140172568823</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.20815241364399</v>
+        <v>23.40379943809984</v>
       </c>
       <c r="C21">
-        <v>29.23445089421048</v>
+        <v>16.25555139336961</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.96996401113257</v>
+        <v>17.08777766144854</v>
       </c>
       <c r="F21">
-        <v>59.7797464124733</v>
+        <v>49.84506971065188</v>
       </c>
       <c r="G21">
-        <v>1.973700722964785</v>
+        <v>3.649099409244018</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.649461992235556</v>
+        <v>9.21864590444248</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.75091051882431</v>
+        <v>18.05610333265616</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.87266918133734</v>
+        <v>23.929891518751</v>
       </c>
       <c r="C22">
-        <v>30.5232577439067</v>
+        <v>16.72463105815748</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.47159046963449</v>
+        <v>17.15427721320884</v>
       </c>
       <c r="F22">
-        <v>62.25442968729903</v>
+        <v>50.31061438432866</v>
       </c>
       <c r="G22">
-        <v>1.959780034981574</v>
+        <v>3.645572443222911</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.77497350103836</v>
+        <v>9.214946835566472</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.51632875206487</v>
+        <v>18.00296308485878</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.98634414954507</v>
+        <v>23.65002306413638</v>
       </c>
       <c r="C23">
-        <v>29.83676990253401</v>
+        <v>16.47559548291947</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.2046644797459</v>
+        <v>17.1185620725214</v>
       </c>
       <c r="F23">
-        <v>60.92684943950321</v>
+        <v>50.06141959316206</v>
       </c>
       <c r="G23">
-        <v>1.967236904571471</v>
+        <v>3.647443594968449</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.706940640654202</v>
+        <v>9.21676423054825</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.64096783962825</v>
+        <v>18.03115995256091</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.57767250905503</v>
+        <v>22.57090550744092</v>
       </c>
       <c r="C24">
-        <v>27.20103585298448</v>
+        <v>15.50400317947299</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.17552054696079</v>
+        <v>16.98827570662097</v>
       </c>
       <c r="F24">
-        <v>56.12748853526058</v>
+        <v>49.13428150796085</v>
       </c>
       <c r="G24">
-        <v>1.994981284582421</v>
+        <v>3.654778519062893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.470923524314923</v>
+        <v>9.227083299380768</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.12427658374364</v>
+        <v>18.14157708507758</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.75394135288718</v>
+        <v>21.37275023028456</v>
       </c>
       <c r="C25">
-        <v>24.25086895583611</v>
+        <v>14.39974788891367</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.02415460758479</v>
+        <v>16.85885833503456</v>
       </c>
       <c r="F25">
-        <v>51.00319118507283</v>
+        <v>48.17431057901867</v>
       </c>
       <c r="G25">
-        <v>2.024384627839905</v>
+        <v>3.663226740433583</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.255318898556792</v>
+        <v>9.245486917442845</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.66457758356952</v>
+        <v>18.2684235234349</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.46881016851428</v>
+        <v>28.78341083630074</v>
       </c>
       <c r="C2">
-        <v>13.54377188033832</v>
+        <v>21.96202827771176</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.77355237588091</v>
+        <v>12.14061726569944</v>
       </c>
       <c r="F2">
-        <v>47.50616550936569</v>
+        <v>47.20302623045654</v>
       </c>
       <c r="G2">
-        <v>3.669915681311299</v>
+        <v>2.046010909567143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.265219716441752</v>
+        <v>6.124114793604558</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.36849905770418</v>
+        <v>12.07595941269884</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84711276551646</v>
+        <v>26.66241438192593</v>
       </c>
       <c r="C3">
-        <v>12.94045050999947</v>
+        <v>20.3285010839022</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.72216121709578</v>
+        <v>11.52061845280626</v>
       </c>
       <c r="F3">
-        <v>47.07946520414222</v>
+        <v>44.60569462353254</v>
       </c>
       <c r="G3">
-        <v>3.674744770130402</v>
+        <v>2.060819324621625</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.282410435452039</v>
+        <v>6.049882896724994</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.44049805074787</v>
+        <v>12.36262992783901</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.46258293652042</v>
+        <v>25.30400054888287</v>
       </c>
       <c r="C4">
-        <v>12.56002308884923</v>
+        <v>19.28227617595042</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.69383337306526</v>
+        <v>11.13021915811336</v>
       </c>
       <c r="F4">
-        <v>46.83095792201943</v>
+        <v>43.00064359467402</v>
       </c>
       <c r="G4">
-        <v>3.677857012321019</v>
+        <v>2.070032270109234</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.294835203925411</v>
+        <v>6.010813177503411</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.4867694281206</v>
+        <v>12.54247292742136</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.30545007344866</v>
+        <v>24.7359632970869</v>
       </c>
       <c r="C5">
-        <v>12.40273950786562</v>
+        <v>18.84472337867132</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.68310941685904</v>
+        <v>10.96884065797934</v>
       </c>
       <c r="F5">
-        <v>46.73316768286469</v>
+        <v>42.34429489768231</v>
       </c>
       <c r="G5">
-        <v>3.679162449258026</v>
+        <v>2.073822866001179</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.300366507579843</v>
+        <v>5.996426611103512</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.50614470584586</v>
+        <v>12.61672272803654</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.27934030616031</v>
+        <v>24.6407575934043</v>
       </c>
       <c r="C6">
-        <v>12.37649448727461</v>
+        <v>18.77138209878134</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.68137846409373</v>
+        <v>10.94191105210856</v>
       </c>
       <c r="F6">
-        <v>46.71714215943163</v>
+        <v>42.23518383789497</v>
       </c>
       <c r="G6">
-        <v>3.679381466138781</v>
+        <v>2.074454642341337</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.301313188750406</v>
+        <v>5.994127536732479</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.50939333308645</v>
+        <v>12.62911011019767</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.46046517447551</v>
+        <v>25.29639883451545</v>
       </c>
       <c r="C7">
-        <v>12.55791068306315</v>
+        <v>19.27642098054284</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.69368541570903</v>
+        <v>11.12805177835602</v>
       </c>
       <c r="F7">
-        <v>46.82962489553097</v>
+        <v>42.99180052087803</v>
       </c>
       <c r="G7">
-        <v>3.677874467163876</v>
+        <v>2.07008323726363</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.294907908360836</v>
+        <v>6.010613072504397</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.48702862664971</v>
+        <v>12.54347038437225</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.25518920513057</v>
+        <v>28.06350008662612</v>
       </c>
       <c r="C8">
-        <v>13.33796217049593</v>
+        <v>21.40754501741938</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.75516838676933</v>
+        <v>11.92893969696246</v>
       </c>
       <c r="F8">
-        <v>47.35629410536921</v>
+        <v>46.30972212183861</v>
       </c>
       <c r="G8">
-        <v>3.671550309023925</v>
+        <v>2.051095626370798</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.270757847378452</v>
+        <v>6.097105488164075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.392896215464</v>
+        <v>12.17400700281005</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.78027814904159</v>
+        <v>33.06438515163614</v>
       </c>
       <c r="C9">
-        <v>14.77879538740316</v>
+        <v>25.26131244379683</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.90092922054962</v>
+        <v>13.41761203987048</v>
       </c>
       <c r="F9">
-        <v>48.49194504020979</v>
+        <v>52.7323107453977</v>
       </c>
       <c r="G9">
-        <v>3.660308643623182</v>
+        <v>2.014508770219475</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.238322269682117</v>
+        <v>6.323305179877456</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.22465888030183</v>
+        <v>11.48034631476894</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.86681436179169</v>
+        <v>36.5128358861117</v>
       </c>
       <c r="C10">
-        <v>15.77235749047685</v>
+        <v>27.92351280790555</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.02278451348796</v>
+        <v>14.45801468879742</v>
       </c>
       <c r="F10">
-        <v>49.38297609184271</v>
+        <v>57.41502875675945</v>
       </c>
       <c r="G10">
-        <v>3.652745779350755</v>
+        <v>1.987515597068949</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.223706862297465</v>
+        <v>6.531596128005974</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.11099862756352</v>
+        <v>10.99140672274521</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.35123603449664</v>
+        <v>38.04215039076938</v>
       </c>
       <c r="C11">
-        <v>16.20845747469844</v>
+        <v>29.10601365703867</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.08128458731357</v>
+        <v>14.91986620945143</v>
       </c>
       <c r="F11">
-        <v>49.79924099662983</v>
+        <v>59.54652804987967</v>
       </c>
       <c r="G11">
-        <v>3.649454132782236</v>
+        <v>1.975069549570204</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.219082643316943</v>
+        <v>6.637474708766847</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.06144577369372</v>
+        <v>10.77441094497951</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53307500145706</v>
+        <v>38.61658822516807</v>
       </c>
       <c r="C12">
-        <v>16.37119525448572</v>
+        <v>29.55053250505588</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.10386516807839</v>
+        <v>15.09318078584223</v>
       </c>
       <c r="F12">
-        <v>49.95831885318202</v>
+        <v>60.37523425715791</v>
       </c>
       <c r="G12">
-        <v>3.648228879813738</v>
+        <v>1.970317844580058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.217624468525996</v>
+        <v>6.679366211622597</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.04299064795187</v>
+        <v>10.69315673427319</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49398667580306</v>
+        <v>38.49306304058852</v>
       </c>
       <c r="C13">
-        <v>16.33625539450572</v>
+        <v>29.45492763296344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.09898322319521</v>
+        <v>15.05592304215921</v>
       </c>
       <c r="F13">
-        <v>49.92399622436461</v>
+        <v>60.19125280224542</v>
       </c>
       <c r="G13">
-        <v>3.6484918187504</v>
+        <v>1.971343194994781</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.217925457143481</v>
+        <v>6.67026064044499</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.04695152461337</v>
+        <v>10.71061264321547</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.36622911442163</v>
+        <v>38.08949717211014</v>
       </c>
       <c r="C14">
-        <v>16.22189481021639</v>
+        <v>29.14264460041552</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.08313380796214</v>
+        <v>14.93415599537933</v>
       </c>
       <c r="F14">
-        <v>49.81230014134366</v>
+        <v>59.6130101565475</v>
       </c>
       <c r="G14">
-        <v>3.649352906112687</v>
+        <v>1.974679493554557</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.218956797866193</v>
+        <v>6.640883860683056</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.05992125681693</v>
+        <v>10.76770672555735</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.28776025566287</v>
+        <v>37.84172457324926</v>
       </c>
       <c r="C15">
-        <v>16.15152934300312</v>
+        <v>28.95096425743062</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.07348090233242</v>
+        <v>14.85936734333559</v>
       </c>
       <c r="F15">
-        <v>49.74406782154921</v>
+        <v>59.26541968498969</v>
       </c>
       <c r="G15">
-        <v>3.64988310579815</v>
+        <v>1.976717551681216</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.219626722413963</v>
+        <v>6.623130308946916</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.06790589595394</v>
+        <v>10.8028030576223</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.83494186094521</v>
+        <v>36.4121785570123</v>
       </c>
       <c r="C16">
-        <v>15.74352708631773</v>
+        <v>27.84572696734017</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.01902200477021</v>
+        <v>14.42760607334782</v>
       </c>
       <c r="F16">
-        <v>49.3559815736737</v>
+        <v>57.27584884625869</v>
       </c>
       <c r="G16">
-        <v>3.652963874984171</v>
+        <v>1.988324431258644</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.224049958788635</v>
+        <v>6.524916715593863</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.11428032450707</v>
+        <v>11.00570751484394</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55449248194995</v>
+        <v>35.52574834542109</v>
       </c>
       <c r="C17">
-        <v>15.48907238681407</v>
+        <v>27.16093352877879</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.98638967408193</v>
+        <v>14.1598381986</v>
       </c>
       <c r="F17">
-        <v>49.12061511633474</v>
+        <v>56.05636714475099</v>
       </c>
       <c r="G17">
-        <v>3.65489180432322</v>
+        <v>1.995392611908479</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.227283285007507</v>
+        <v>6.467645695662405</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.14328066567955</v>
+        <v>11.1316527497196</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.39226821108092</v>
+        <v>35.0121191010608</v>
       </c>
       <c r="C18">
-        <v>15.34122831241113</v>
+        <v>26.76431284957782</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.96790997896749</v>
+        <v>14.00474240338761</v>
       </c>
       <c r="F18">
-        <v>48.98627502364506</v>
+        <v>55.35498370466873</v>
       </c>
       <c r="G18">
-        <v>3.656014708198061</v>
+        <v>1.999443380325913</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.22933345249761</v>
+        <v>6.435738572516613</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.16016342320556</v>
+        <v>11.20459271445222</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.33719026398576</v>
+        <v>34.83753723814553</v>
       </c>
       <c r="C19">
-        <v>15.29091920590237</v>
+        <v>26.62952944090467</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.96170319678381</v>
+        <v>13.95204242531265</v>
       </c>
       <c r="F19">
-        <v>48.94097153784056</v>
+        <v>55.11748275641364</v>
       </c>
       <c r="G19">
-        <v>3.656397315429645</v>
+        <v>2.000812784032258</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.230060256265149</v>
+        <v>6.425107421212928</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.16591441878451</v>
+        <v>11.22937145938219</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.58444312165787</v>
+        <v>35.62049484234488</v>
       </c>
       <c r="C20">
-        <v>15.51631451046699</v>
+        <v>27.23410957604554</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.98983356711713</v>
+        <v>14.1884542860789</v>
       </c>
       <c r="F20">
-        <v>49.14556390009374</v>
+        <v>56.18617260562968</v>
       </c>
       <c r="G20">
-        <v>3.654685124185644</v>
+        <v>1.994641806655495</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.226919368317946</v>
+        <v>6.473633991686622</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.140172568823</v>
+        <v>11.11819314532321</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.40379943809984</v>
+        <v>38.20815241364385</v>
       </c>
       <c r="C21">
-        <v>16.25555139336961</v>
+        <v>29.23445089421045</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.08777766144854</v>
+        <v>14.96996401113255</v>
       </c>
       <c r="F21">
-        <v>49.84506971065188</v>
+        <v>59.77974641247314</v>
       </c>
       <c r="G21">
-        <v>3.649099409244018</v>
+        <v>1.973700722964922</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.21864590444248</v>
+        <v>6.649461992235548</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.05610333265616</v>
+        <v>10.75091051882426</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.929891518751</v>
+        <v>39.87266918133722</v>
       </c>
       <c r="C22">
-        <v>16.72463105815748</v>
+        <v>30.52325774390668</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.15427721320884</v>
+        <v>15.4715904696344</v>
       </c>
       <c r="F22">
-        <v>50.31061438432866</v>
+        <v>62.25442968729891</v>
       </c>
       <c r="G22">
-        <v>3.645572443222911</v>
+        <v>1.959780034981706</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.214946835566472</v>
+        <v>6.774973501038377</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.00296308485878</v>
+        <v>10.51632875206496</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.65002306413638</v>
+        <v>38.98634414954515</v>
       </c>
       <c r="C23">
-        <v>16.47559548291947</v>
+        <v>29.83676990253402</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.1185620725214</v>
+        <v>15.20466447974589</v>
       </c>
       <c r="F23">
-        <v>50.06141959316206</v>
+        <v>60.92684943950333</v>
       </c>
       <c r="G23">
-        <v>3.647443594968449</v>
+        <v>1.967236904571339</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.21676423054825</v>
+        <v>6.706940640654202</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.03115995256091</v>
+        <v>10.64096783962823</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.57090550744092</v>
+        <v>35.57767250905501</v>
       </c>
       <c r="C24">
-        <v>15.50400317947299</v>
+        <v>27.20103585298446</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.98827570662097</v>
+        <v>14.17552054696075</v>
       </c>
       <c r="F24">
-        <v>49.13428150796085</v>
+        <v>56.12748853526052</v>
       </c>
       <c r="G24">
-        <v>3.654778519062893</v>
+        <v>1.994981284582291</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.227083299380768</v>
+        <v>6.470923524314929</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.14157708507758</v>
+        <v>11.12427658374369</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.37275023028456</v>
+        <v>31.75394135288717</v>
       </c>
       <c r="C25">
-        <v>14.39974788891367</v>
+        <v>24.25086895583614</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.85885833503456</v>
+        <v>13.02415460758476</v>
       </c>
       <c r="F25">
-        <v>48.17431057901867</v>
+        <v>51.00319118507288</v>
       </c>
       <c r="G25">
-        <v>3.663226740433583</v>
+        <v>2.024384627839908</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.245486917442845</v>
+        <v>6.2553188985568</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.2684235234349</v>
+        <v>11.66457758356953</v>
       </c>
       <c r="O25">
         <v>0</v>
